--- a/biology/Histoire de la zoologie et de la botanique/Murk_van_Phelsum/Murk_van_Phelsum.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Murk_van_Phelsum/Murk_van_Phelsum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Murk (ou Murck, Mark) van Phelsum, né le 6 aout 1730 à Sneek où il est mort le 21 aout 1779, est un médecin et un zoologiste néerlandais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses études de médecine en 1754 à l’université de Franeker où il obtient son doctorat. Il commence à pratiquer à Bolsward, puis, à partir de 1764, à Sneek. Sa bibliothèque est vendue aux enchères le 13 mars 1780.
 John Edward Gray (1800-1875) lui dédie le genre Phelsuma de Madagascar.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1762 : Historia physiologica ascaridum (Leeuwarden)
 1769 : Explicatio patrium pythographiae L. Plukneti (Haarlem)
@@ -579,7 +595,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 2 janvier 2007).</t>
         </is>
